--- a/medicine/Enfance/Élodie_Durand/Élodie_Durand.xlsx
+++ b/medicine/Enfance/Élodie_Durand/Élodie_Durand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Durand</t>
+          <t>Élodie_Durand</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élodie Durand (née en 1976 à Tours, Indre-et-Loire) est une dessinatrice et scénariste de bande dessinée française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Durand</t>
+          <t>Élodie_Durand</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir fait une licence d’arts plastiques à Université Paris-VIII[1], elle se remet à des études à l'École supérieure des arts décoratifs de Strasbourg[1], où elle suit les cours d'illustration de Claude Lapointe, Christian Heinrich et Béhé pour obtenir en 2003 le DNSEP Communication « illustration ».
-Elle travaille d'abord pour la presse enfantine et l'édition jeunesse[1] (Actes Sud, Milan, Bayard…) : récits, petits ouvrages philosophiques, documentaires.
-Elle publie ensuite ses premières histoires en bande dessinée : « Préavis », dans Canicule[1] (association Institut Pacôme) ; « Les Moitiés », dans Pommes d'amour - 7 Love Stories chez Delcourt, Mirages, avec Paz Boïra, Verena Braun, claire Lenkova, Ulli Lust, Laureline Michon, Barbara Yelin, 
-En 2006, elle bénéficie d'une résidence de quelques mois à la maison des auteurs de la Cité internationale de la bande dessinée et de l'image d'Angoulême[1] où elle écrit un premier récit pour adultes.
-Pour son album paru en 2010 La Parenthèse, elle obtient plusieurs prix, dont le Prix révélation du festival d'Angoulême 2011[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir fait une licence d’arts plastiques à Université Paris-VIII, elle se remet à des études à l'École supérieure des arts décoratifs de Strasbourg, où elle suit les cours d'illustration de Claude Lapointe, Christian Heinrich et Béhé pour obtenir en 2003 le DNSEP Communication « illustration ».
+Elle travaille d'abord pour la presse enfantine et l'édition jeunesse (Actes Sud, Milan, Bayard…) : récits, petits ouvrages philosophiques, documentaires.
+Elle publie ensuite ses premières histoires en bande dessinée : « Préavis », dans Canicule (association Institut Pacôme) ; « Les Moitiés », dans Pommes d'amour - 7 Love Stories chez Delcourt, Mirages, avec Paz Boïra, Verena Braun, claire Lenkova, Ulli Lust, Laureline Michon, Barbara Yelin, 
+En 2006, elle bénéficie d'une résidence de quelques mois à la maison des auteurs de la Cité internationale de la bande dessinée et de l'image d'Angoulême où elle écrit un premier récit pour adultes.
+Pour son album paru en 2010 La Parenthèse, elle obtient plusieurs prix, dont le Prix révélation du festival d'Angoulême 2011.
 Aujourd’hui, elle est un des membres de l’Atelier du 22 novembre à Strasbourg avec trois graphistes et deux illustrateurs.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Durand</t>
+          <t>Élodie_Durand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Albums illustrés
 Thomas Scotto, La vie de papa, mode d'emploi, coll. Roman Benjamin, Actes Sud Junior, 2009  (ISBN 2-7427-8233-8)
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Durand</t>
+          <t>Élodie_Durand</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,12 +617,14 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Parenthèse (2010) :
-Prix Nouvelle République 2010 du festival BD Boum de Blois[3]
+Prix Nouvelle République 2010 du festival BD Boum de Blois
 Festival d'Angoulême 2011
-le Prix révélation[2]
+le Prix révélation
 le prix des lecteurs de Libération ;
 le Prix de la meilleure bande dessinée francophone du Festival d'Angoulême : le choix polonais décerné à Cracovie</t>
         </is>
